--- a/game_info/tech_merge_list.xlsx
+++ b/game_info/tech_merge_list.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\FactorioBot\game_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BBBFC7-C589-45C5-8993-CF097F22ECB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7203AE14-A66A-4105-8596-ADC9BB966205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="75" windowWidth="22260" windowHeight="15390" xr2:uid="{010B8480-91CE-491D-8CB4-F04F9E1CD0B0}"/>
+    <workbookView xWindow="4785" yWindow="0" windowWidth="22260" windowHeight="15390" activeTab="1" xr2:uid="{010B8480-91CE-491D-8CB4-F04F9E1CD0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="勿动" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$C$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">勿动!$A$1:$E$193</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,15 +42,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="616">
   <si>
     <t>logistic-science-pack</t>
   </si>
   <si>
     <t>物流研究包(绿瓶)</t>
-  </si>
-  <si>
-    <t>advanced-electronics</t>
   </si>
   <si>
     <t>高等电学</t>
@@ -1223,6 +1224,687 @@
   </si>
   <si>
     <t>合成页面主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advanced-electronics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程已结束,退出代码0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advanced-electronics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 高阶运算所需的集成电路和微处理器。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advanced-material-processing </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 更高效、适用更广的冶炼炉。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advanced-oil-processing </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可将原油进一步精炼得到更多产物。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artillery </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一种安装在炮塔或车厢上的远程火炮，可以向远处的敌方建筑自动开炮，也可以用瞄准器向更远的位置手动开炮。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artillery-shell-range </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可提高重型火炮的自动射程和手动射程。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artillery-shell-speed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 提高重型火炮的射速。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atomic-bomb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一种极具毁灭性的火箭弹，能瞬间荡平一大片区域。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automated-construction </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可对建设机器人下达复杂工作指令的技术，例如同时铺设、升级或拆除多个设施，复刻整个工厂布局，清除大片森林。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automated-rail-transportation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 解锁火车站，可用于设置列车自动行驶线路。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 自动化批量生产所需的核心科技。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automation-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 能处理流体原料的组装机。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automation-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 能处理流体原料、生产速度更快、而且有更多插件插槽的组装机。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automobilism </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一种引擎驱动的交通工具。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 为电子设备存储和供应能量的化学电池。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery-equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用于插入装甲，可储存富余的能量以供应急之需。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery-mk2-equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用于插入装甲，可储存更多富余的能量以供应急之需。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belt-immunity-equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用于插入装甲，可让你不被传送带运走。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">braking-force </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 让火车能够更快地减速刹车，从而延长其全速行驶里程。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chemical-science-pack </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 进一步解锁相关研究：使用石油产品制作的高级物品。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circuit-network </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 通过线缆连接机器，让机器根据信号自动作出特定动作，从而更精准地控制机器。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cliff-explosives </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 装满炸药的炸药桶，可用来摧毁悬崖。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coal-liquefaction </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一种能把煤矿转化为原油的处理工艺，处理过程还需要蒸汽和重油。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concrete </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一种高级建筑材料，也可以用于铺设地砖。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">construction-robotics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 建设机器人可以自动维修或铺设友方设施，也可以通过布置建设规划让建设机器人铺设新设施。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defender </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最基础的战斗无人机型号，可在一小段时间内跟随并辅助玩家。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">destroyer </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最高级的战斗无人机型号，可在有限的时间内跟随并辅助玩家。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discharge-defense-equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用于插入装甲，通过瞄准器放电可伤害、击退、致昏附近的敌人。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distractor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 战斗无人机的中等型号，可在部署位置向敌方射击、吸引火力。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effect-transmission </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 插件效果分享塔能把插件的加成效果分享给周围的友方机器。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effectivity-module </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 该插件可降低机器的能耗。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electric-energy-accumulators </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可储存富余电能的设施。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electric-energy-distribution </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 适用性更广的配电方式。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electric-engine </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可将电能转化为机械动力。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electronics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 基本信号处理所需的电子元器件。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energy-shield-equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用于插入装甲，可吸收伤害。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energy-shield-mk2-equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用于插入装甲，可吸收大量伤害。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energy-weapons-damage </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 提高激光、电击等能量束的武器伤害。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engine </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可将燃料的化学能转化为机械动力，是各种载具的必要组件。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exoskeleton-equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用于插入装甲，可提高玩家的移动速度。可以同时装备多个外骨骼模块。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explosive-rocketry </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一种极具爆炸力的火箭弹，有更大的爆炸半径。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explosives </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可开发出危险但可控的炸药。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fast-inserter </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 动作更快的机械臂，通过改进的电子系统还能够筛选物品。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flamethrower </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 手持式或炮塔式的强劲火焰喷射器，可向敌方喷射燃油使其置于火海。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flammables </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 以更高效的燃料和更具杀伤性的武器为目标深入研发。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fluid-handling </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 储存和运输流体所需的多种技术。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fluid-wagon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可通过铁路运输流体。液罐车厢停在直线铁路区间时，可通过铁轨旁的管道泵装卸流体。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">follower-robot-count </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 提高可同时跟着你的战斗无人机的数量上限。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fusion-reactor-equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用于插入装甲，可为其它模块提供能量。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gates </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可在需要时打开一截墙壁以供进出，可通过信号网络自动控制。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gun-turret </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 基础防御工事，需要装填子弹。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heavy-armor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 为玩家提供更多防护的护甲。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inserter-capacity-bonus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 让集装机械臂每次可以搬运更多的物品。其中部分升级可稍微提高常规机械臂每次搬运物品的数量。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kovarex-enrichment-process </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可使用 铀-238 生成 铀-235 的处理过程，铀的增殖需要大量的 铀-235 作为触媒。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">land-mine </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一种铺在地面上的爆炸陷阱，敌方走过就会引爆。引爆后可由建设机器人自动铺设。「烈性炸药」科技可强化其杀伤力。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landfill </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可在水上铺设，用以创造建设用地。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laser </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可造成伤害的聚焦光束。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laser-shooting-speed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 提高激光武器的射速。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laser-turret </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 高级防御工事，仅需为其供应电力即可。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logistic-robotics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 物流机器人能为玩家送来物品，也能把不需要的物品送走。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logistic-science-pack </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 进一步解锁相关研究：改进的物流、自动化和初级军备。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logistic-system </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 解锁更多物流箱，物流机器人的应用场景将得以扩展。优先集货箱 (蓝箱) 可从物流网络中请求并优先收集指定物品。主动供货箱 (紫箱) 会把里面的物品主动推送到储存处或需求处。主动存货箱 (绿箱) 也可请求并收集指定物品，通常用于供应背包物流和自动建设。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logistics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 更高效的多种物流运输方式。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low-density-structure </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一种轻质且耐用的材料，非常适合用在太空船和便携式装备上。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lubricant </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 将重油转化为润滑油，可为高速机器降低摩擦。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">military </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用更强劲的武器保护你和你的工厂。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">military-science-pack </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 进一步解锁相关研究：更多军备。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mining-productivity </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 提高所有采矿机和抽油机的产量。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modular-armor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 具有较小装备插槽的装甲，可插入模块装备，让你获得独特的加成。穿上装甲也会增大你的背包。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modules </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可插入机器以提供加成的插件技术。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">night-vision-equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用于插入装甲，可使玩家获得夜视能力。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuclear-fuel-reprocessing </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可从乏燃料棒中提取 铀-238 的后处理过程。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuclear-power </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 使用铀燃料棒发电的精密技术。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oil-processing </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 原油精炼产物可用于生产塑料、硫磺以及燃料。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可见光的多种技术应用。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personal-laser-defense-equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用于插入装甲，可自动向周边敌对单位开火。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personal-roboport-equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用于插入装甲，可让建设机器人直接从背包中飞出来作业。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personal-roboport-mk2-equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用于插入装甲，可让许多建设机器人直接从背包中飞出来作业。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">physical-projectile-damage </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 提高动能弹药武器的伤害。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 塑料是一种可模塑成特定形状的合成聚合材料。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power-armor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 具有较大模块插槽和背包容量加成的装甲。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power-armor-mk2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 具有很大模块插槽和背包容量加成的装甲。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production-science-pack </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用于研究效率最高的机器、模块和流程。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">productivity-module </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 该插件可提高机器的产能 (同等材料产出更多产品)，但会增加能耗、降低速度。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rail-signals </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可以在同一条铁轨上安排多次列车。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">railway </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 大运量的远距离运输方式。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refined-flammables </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 提高基于火焰的武器伤害。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">research-speed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 提高科研效率。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robotics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 飞行机器人的主体部分，进一步加工后可从事物流工作或建设工作。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rocket-control-unit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 能够控制火箭系统运行的高级运算处理器。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rocket-fuel </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一种用途广泛的精炼燃料。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rocket-silo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 让玩家能够发射火箭至太空，以此通关游戏。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rocketry </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可通过火箭筒发射火箭弹。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solar-energy </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 零消耗的电力来源，但夜间失效。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solar-panel-equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 用于插入装甲，可为其它模块提供能量，但夜间无用。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">space-science-pack </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可将卫星送入太空，以此获得包含了科学数据的 太空研究包 (白瓶) 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speed-module </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 该插件可提高机器的生产速度，但会增加能耗。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spidertron </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一种能够穿越复杂地形的多用途载具，其装备的高射速火箭筒能够手动瞄准或自动攻击，既能够手动驾驶，也可以通过遥控器远程驱动。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stack-inserter </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 集装机械臂能每次同时搬运多个物品。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel-axe </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可提高人工采矿速度。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel-processing </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可将铁板冶炼成钢材的技术。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone-wall </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 保护工厂的墙壁。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stronger-explosives </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 提高基于炸药武器的伤害。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sulfur-processing </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一种高活性的非金属化工品，可用于制造硫酸和炸药。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tank </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一种可装备多种武器的攻击性载具。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toolbelt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可扩大玩家背包。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uranium-ammo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 使用 铀-238 制造的高级弹药，其硬度和重量的优势能产生巨大的破坏力。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uranium-processing </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 经过离心机的处理 铀矿 将转变为 铀-238 ，同时还有一定概率获得更有价值的 铀-235 ，二者都是制造铀燃料棒的原料。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utility-science-pack </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可以研究最强大的武器、个人设备和机器人协调。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weapon-shooting-speed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 提高动能弹药武器的射速。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worker-robots-speed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 提高物流机器人和建设机器人的飞行速度。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worker-robots-storage </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 提高物流机器人和建设机器人每次可携带货物的数量。</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1589,9 +2271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD5E853-0458-424C-91A8-350443C801C0}">
   <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1605,967 +2287,967 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" t="s">
         <v>386</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>387</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>388</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>389</v>
-      </c>
-      <c r="E1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
         <v>163</v>
-      </c>
-      <c r="B3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
         <v>89</v>
-      </c>
-      <c r="B4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
         <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" t="s">
         <v>349</v>
       </c>
-      <c r="B8" t="s">
-        <v>350</v>
-      </c>
       <c r="C8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
         <v>121</v>
-      </c>
-      <c r="B10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
         <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" t="s">
         <v>271</v>
-      </c>
-      <c r="B14" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" t="s">
         <v>371</v>
-      </c>
-      <c r="B15" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" t="s">
         <v>294</v>
-      </c>
-      <c r="B16" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" t="s">
         <v>257</v>
-      </c>
-      <c r="B17" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" t="s">
         <v>255</v>
-      </c>
-      <c r="B18" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
         <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
         <v>100</v>
       </c>
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" t="s">
         <v>367</v>
       </c>
-      <c r="B21" t="s">
-        <v>368</v>
-      </c>
       <c r="D21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>328</v>
+      </c>
+      <c r="B22" t="s">
         <v>329</v>
       </c>
-      <c r="B22" t="s">
-        <v>330</v>
-      </c>
       <c r="D22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
         <v>84</v>
-      </c>
-      <c r="B27" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
         <v>94</v>
-      </c>
-      <c r="B28" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" t="s">
         <v>159</v>
-      </c>
-      <c r="B29" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" t="s">
         <v>223</v>
-      </c>
-      <c r="B30" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
         <v>117</v>
-      </c>
-      <c r="B31" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" t="s">
         <v>241</v>
-      </c>
-      <c r="B32" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s">
         <v>129</v>
-      </c>
-      <c r="B33" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" t="s">
         <v>247</v>
-      </c>
-      <c r="B35" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" t="s">
         <v>181</v>
-      </c>
-      <c r="B36" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
         <v>65</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" t="s">
         <v>187</v>
-      </c>
-      <c r="B38" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" t="s">
         <v>185</v>
-      </c>
-      <c r="B39" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
         <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>295</v>
+      </c>
+      <c r="B41" t="s">
         <v>296</v>
-      </c>
-      <c r="B41" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
         <v>147</v>
-      </c>
-      <c r="B43" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" t="s">
         <v>119</v>
-      </c>
-      <c r="B44" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
         <v>69</v>
-      </c>
-      <c r="B45" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B46" t="s">
         <v>361</v>
-      </c>
-      <c r="B46" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" t="s">
         <v>265</v>
-      </c>
-      <c r="B47" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s">
         <v>125</v>
       </c>
-      <c r="B48" t="s">
-        <v>126</v>
-      </c>
       <c r="C48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
         <v>71</v>
       </c>
-      <c r="B49" t="s">
-        <v>72</v>
-      </c>
       <c r="C49" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
         <v>45</v>
       </c>
-      <c r="B50" t="s">
-        <v>46</v>
-      </c>
       <c r="C50" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" t="s">
         <v>131</v>
       </c>
-      <c r="B51" t="s">
-        <v>132</v>
-      </c>
       <c r="C51" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
         <v>53</v>
       </c>
-      <c r="B52" t="s">
-        <v>54</v>
-      </c>
       <c r="C52" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>316</v>
+      </c>
+      <c r="B53" t="s">
         <v>317</v>
       </c>
-      <c r="B53" t="s">
-        <v>318</v>
-      </c>
       <c r="C53" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>372</v>
+      </c>
+      <c r="B54" t="s">
         <v>373</v>
       </c>
-      <c r="B54" t="s">
-        <v>374</v>
-      </c>
       <c r="C54" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>346</v>
+      </c>
+      <c r="B55" t="s">
         <v>347</v>
-      </c>
-      <c r="B55" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" t="s">
         <v>231</v>
-      </c>
-      <c r="B56" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" t="s">
         <v>235</v>
-      </c>
-      <c r="B57" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" t="s">
         <v>245</v>
-      </c>
-      <c r="B58" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>338</v>
+      </c>
+      <c r="B59" t="s">
         <v>339</v>
-      </c>
-      <c r="B59" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" t="s">
         <v>193</v>
-      </c>
-      <c r="B60" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" t="s">
         <v>153</v>
-      </c>
-      <c r="B61" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" t="s">
         <v>227</v>
-      </c>
-      <c r="B62" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" t="s">
         <v>319</v>
-      </c>
-      <c r="B63" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>236</v>
+      </c>
+      <c r="B64" t="s">
         <v>237</v>
       </c>
-      <c r="B64" t="s">
-        <v>238</v>
-      </c>
       <c r="C64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>278</v>
+      </c>
+      <c r="B65" t="s">
         <v>279</v>
       </c>
-      <c r="B65" t="s">
-        <v>280</v>
-      </c>
       <c r="C65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" t="s">
         <v>173</v>
       </c>
-      <c r="B66" t="s">
-        <v>174</v>
-      </c>
       <c r="C66" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>368</v>
+      </c>
+      <c r="B67" t="s">
         <v>369</v>
       </c>
-      <c r="B67" t="s">
-        <v>370</v>
-      </c>
       <c r="C67" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" t="s">
         <v>92</v>
       </c>
-      <c r="B68" t="s">
-        <v>93</v>
-      </c>
       <c r="C68" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>354</v>
+      </c>
+      <c r="B69" t="s">
         <v>355</v>
       </c>
-      <c r="B69" t="s">
-        <v>356</v>
-      </c>
       <c r="C69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>374</v>
+      </c>
+      <c r="B70" t="s">
         <v>375</v>
       </c>
-      <c r="B70" t="s">
-        <v>376</v>
-      </c>
       <c r="C70" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D70" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" t="s">
         <v>23</v>
-      </c>
-      <c r="B71" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" t="s">
         <v>233</v>
-      </c>
-      <c r="B72" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" t="s">
         <v>123</v>
-      </c>
-      <c r="B73" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>272</v>
+      </c>
+      <c r="B74" t="s">
         <v>273</v>
-      </c>
-      <c r="B74" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>260</v>
+      </c>
+      <c r="B75" t="s">
         <v>261</v>
       </c>
-      <c r="B75" t="s">
-        <v>262</v>
-      </c>
       <c r="D75" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E75" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>342</v>
+      </c>
+      <c r="B76" t="s">
         <v>343</v>
       </c>
-      <c r="B76" t="s">
-        <v>344</v>
-      </c>
       <c r="D76" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" t="s">
         <v>107</v>
       </c>
-      <c r="B77" t="s">
-        <v>108</v>
-      </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
         <v>4</v>
       </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
       <c r="D78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" t="s">
         <v>141</v>
       </c>
-      <c r="B79" t="s">
-        <v>142</v>
-      </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" t="s">
         <v>195</v>
       </c>
-      <c r="B80" t="s">
-        <v>196</v>
-      </c>
       <c r="D80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>262</v>
+      </c>
+      <c r="B81" t="s">
         <v>263</v>
       </c>
-      <c r="B81" t="s">
-        <v>264</v>
-      </c>
       <c r="D81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" t="s">
         <v>109</v>
-      </c>
-      <c r="B82" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" t="s">
         <v>33</v>
-      </c>
-      <c r="B83" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
         <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>340</v>
+      </c>
+      <c r="B85" t="s">
         <v>341</v>
-      </c>
-      <c r="B85" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>320</v>
+      </c>
+      <c r="B87" t="s">
         <v>321</v>
       </c>
-      <c r="B87" t="s">
-        <v>322</v>
-      </c>
       <c r="D87" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>344</v>
+      </c>
+      <c r="B88" t="s">
         <v>345</v>
       </c>
-      <c r="B88" t="s">
-        <v>346</v>
-      </c>
       <c r="D88" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" t="s">
         <v>149</v>
       </c>
-      <c r="B89" t="s">
-        <v>150</v>
-      </c>
       <c r="D89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
         <v>17</v>
       </c>
-      <c r="B90" t="s">
-        <v>18</v>
-      </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" t="s">
         <v>41</v>
       </c>
-      <c r="B91" t="s">
-        <v>42</v>
-      </c>
       <c r="D91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" t="s">
         <v>37</v>
       </c>
-      <c r="B92" t="s">
-        <v>38</v>
-      </c>
       <c r="D92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>303</v>
+      </c>
+      <c r="B93" t="s">
         <v>304</v>
-      </c>
-      <c r="B93" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
         <v>51</v>
-      </c>
-      <c r="B94" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>324</v>
+      </c>
+      <c r="B95" t="s">
         <v>325</v>
-      </c>
-      <c r="B95" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>332</v>
+      </c>
+      <c r="B96" t="s">
         <v>333</v>
-      </c>
-      <c r="B96" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>305</v>
+      </c>
+      <c r="B97" t="s">
         <v>306</v>
-      </c>
-      <c r="B97" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2578,1017 +3260,5277 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>326</v>
+      </c>
+      <c r="B99" t="s">
         <v>327</v>
-      </c>
-      <c r="B99" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
         <v>102</v>
-      </c>
-      <c r="B100" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>138</v>
+      </c>
+      <c r="B101" t="s">
         <v>139</v>
-      </c>
-      <c r="B101" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>144</v>
+      </c>
+      <c r="B102" t="s">
         <v>145</v>
-      </c>
-      <c r="B102" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>252</v>
+      </c>
+      <c r="B103" t="s">
         <v>253</v>
-      </c>
-      <c r="B103" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>258</v>
+      </c>
+      <c r="B104" t="s">
         <v>259</v>
-      </c>
-      <c r="B104" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>190</v>
+      </c>
+      <c r="B105" t="s">
         <v>191</v>
-      </c>
-      <c r="B105" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" t="s">
         <v>31</v>
-      </c>
-      <c r="B106" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" t="s">
         <v>167</v>
       </c>
-      <c r="B107" t="s">
-        <v>168</v>
-      </c>
       <c r="C107" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>164</v>
+      </c>
+      <c r="B108" t="s">
         <v>165</v>
       </c>
-      <c r="B108" t="s">
-        <v>166</v>
-      </c>
       <c r="C108" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109" t="s">
         <v>55</v>
       </c>
-      <c r="B109" t="s">
-        <v>56</v>
-      </c>
       <c r="C109" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B110" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C110" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D110" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>282</v>
+      </c>
+      <c r="B111" t="s">
         <v>283</v>
-      </c>
-      <c r="B111" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>204</v>
+      </c>
+      <c r="B112" t="s">
         <v>205</v>
-      </c>
-      <c r="B112" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>362</v>
+      </c>
+      <c r="B113" t="s">
         <v>363</v>
-      </c>
-      <c r="B113" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" t="s">
         <v>143</v>
-      </c>
-      <c r="B114" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" t="s">
         <v>169</v>
-      </c>
-      <c r="B115" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>224</v>
+      </c>
+      <c r="B116" t="s">
         <v>225</v>
-      </c>
-      <c r="B116" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>216</v>
+      </c>
+      <c r="B117" t="s">
         <v>217</v>
-      </c>
-      <c r="B117" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>104</v>
+      </c>
+      <c r="B118" t="s">
         <v>105</v>
-      </c>
-      <c r="B118" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" t="s">
         <v>19</v>
-      </c>
-      <c r="B119" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>228</v>
+      </c>
+      <c r="B120" t="s">
         <v>229</v>
-      </c>
-      <c r="B120" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>206</v>
+      </c>
+      <c r="B121" t="s">
         <v>207</v>
       </c>
-      <c r="B121" t="s">
-        <v>208</v>
-      </c>
       <c r="C121" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D121" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E121" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>182</v>
+      </c>
+      <c r="B122" t="s">
         <v>183</v>
       </c>
-      <c r="B122" t="s">
-        <v>184</v>
-      </c>
       <c r="C122" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D122" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" t="s">
         <v>29</v>
       </c>
-      <c r="B123" t="s">
-        <v>30</v>
-      </c>
       <c r="C123" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" t="s">
         <v>35</v>
       </c>
-      <c r="B124" t="s">
-        <v>36</v>
-      </c>
       <c r="C124" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>268</v>
+      </c>
+      <c r="B125" t="s">
         <v>269</v>
       </c>
-      <c r="B125" t="s">
-        <v>270</v>
-      </c>
       <c r="C125" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D125" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>358</v>
+      </c>
+      <c r="B126" t="s">
         <v>359</v>
       </c>
-      <c r="B126" t="s">
-        <v>360</v>
-      </c>
       <c r="C126" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D126" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>352</v>
+      </c>
+      <c r="B127" t="s">
         <v>353</v>
       </c>
-      <c r="B127" t="s">
-        <v>354</v>
-      </c>
       <c r="C127" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D127" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>218</v>
+      </c>
+      <c r="B128" t="s">
         <v>219</v>
-      </c>
-      <c r="B128" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" t="s">
         <v>27</v>
-      </c>
-      <c r="B129" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>112</v>
+      </c>
+      <c r="B130" t="s">
         <v>113</v>
-      </c>
-      <c r="B130" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>79</v>
+      </c>
+      <c r="B131" t="s">
         <v>80</v>
-      </c>
-      <c r="B131" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>198</v>
+      </c>
+      <c r="B132" t="s">
         <v>199</v>
-      </c>
-      <c r="B132" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>364</v>
+      </c>
+      <c r="B133" t="s">
         <v>365</v>
-      </c>
-      <c r="B133" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>310</v>
+      </c>
+      <c r="B134" t="s">
         <v>311</v>
-      </c>
-      <c r="B134" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>62</v>
+      </c>
+      <c r="B135" t="s">
         <v>63</v>
-      </c>
-      <c r="B135" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>46</v>
+      </c>
+      <c r="B136" t="s">
         <v>47</v>
-      </c>
-      <c r="B136" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>336</v>
+      </c>
+      <c r="B137" t="s">
         <v>337</v>
       </c>
-      <c r="B137" t="s">
-        <v>338</v>
-      </c>
       <c r="C137" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D137" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E137" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>289</v>
+      </c>
+      <c r="B138" t="s">
         <v>290</v>
       </c>
-      <c r="B138" t="s">
-        <v>291</v>
-      </c>
       <c r="C138" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D138" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
         <v>15</v>
       </c>
-      <c r="B139" t="s">
-        <v>16</v>
-      </c>
       <c r="C139" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" t="s">
         <v>251</v>
       </c>
-      <c r="B140" t="s">
-        <v>252</v>
-      </c>
       <c r="C140" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D140" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>308</v>
+      </c>
+      <c r="B141" t="s">
         <v>309</v>
       </c>
-      <c r="B141" t="s">
-        <v>310</v>
-      </c>
       <c r="C141" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D141" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>77</v>
+      </c>
+      <c r="B142" t="s">
         <v>78</v>
       </c>
-      <c r="B142" t="s">
-        <v>79</v>
-      </c>
       <c r="C142" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D142" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>174</v>
+      </c>
+      <c r="B143" t="s">
         <v>175</v>
       </c>
-      <c r="B143" t="s">
-        <v>176</v>
-      </c>
       <c r="C143" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>248</v>
+      </c>
+      <c r="B144" t="s">
         <v>249</v>
       </c>
-      <c r="B144" t="s">
-        <v>250</v>
-      </c>
       <c r="D144" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E144" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>297</v>
+      </c>
+      <c r="B145" t="s">
         <v>298</v>
       </c>
-      <c r="B145" t="s">
-        <v>299</v>
-      </c>
       <c r="D145" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146" t="s">
         <v>157</v>
       </c>
-      <c r="B146" t="s">
-        <v>158</v>
-      </c>
       <c r="D146" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
         <v>6</v>
       </c>
-      <c r="B147" t="s">
-        <v>7</v>
-      </c>
       <c r="D147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>210</v>
+      </c>
+      <c r="B148" t="s">
         <v>211</v>
       </c>
-      <c r="B148" t="s">
-        <v>212</v>
-      </c>
       <c r="D148" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>301</v>
+      </c>
+      <c r="B149" t="s">
         <v>302</v>
       </c>
-      <c r="B149" t="s">
-        <v>303</v>
-      </c>
       <c r="D149" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150" t="s">
         <v>49</v>
-      </c>
-      <c r="B150" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>299</v>
+      </c>
+      <c r="B151" t="s">
         <v>300</v>
-      </c>
-      <c r="B151" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>114</v>
+      </c>
+      <c r="B152" t="s">
         <v>115</v>
-      </c>
-      <c r="B152" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>196</v>
+      </c>
+      <c r="B153" t="s">
         <v>197</v>
-      </c>
-      <c r="B153" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>126</v>
+      </c>
+      <c r="B154" t="s">
         <v>127</v>
-      </c>
-      <c r="B154" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155" t="s">
         <v>161</v>
-      </c>
-      <c r="B155" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>322</v>
+      </c>
+      <c r="B156" t="s">
         <v>323</v>
-      </c>
-      <c r="B156" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>136</v>
+      </c>
+      <c r="B157" t="s">
         <v>137</v>
-      </c>
-      <c r="B157" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>208</v>
+      </c>
+      <c r="B158" t="s">
         <v>209</v>
-      </c>
-      <c r="B158" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>214</v>
+      </c>
+      <c r="B159" t="s">
         <v>215</v>
-      </c>
-      <c r="B159" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" t="s">
         <v>201</v>
-      </c>
-      <c r="B160" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>134</v>
+      </c>
+      <c r="B161" t="s">
         <v>135</v>
-      </c>
-      <c r="B161" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>291</v>
+      </c>
+      <c r="B162" t="s">
         <v>292</v>
-      </c>
-      <c r="B162" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>356</v>
+      </c>
+      <c r="B163" t="s">
         <v>357</v>
-      </c>
-      <c r="B163" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>132</v>
+      </c>
+      <c r="B164" t="s">
         <v>133</v>
-      </c>
-      <c r="B164" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>188</v>
+      </c>
+      <c r="B165" t="s">
         <v>189</v>
-      </c>
-      <c r="B165" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>176</v>
+      </c>
+      <c r="B166" t="s">
         <v>177</v>
       </c>
-      <c r="B166" t="s">
-        <v>178</v>
-      </c>
       <c r="C166" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D166" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E166" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>150</v>
+      </c>
+      <c r="B167" t="s">
         <v>151</v>
       </c>
-      <c r="B167" t="s">
-        <v>152</v>
-      </c>
       <c r="C167" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D167" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>266</v>
+      </c>
+      <c r="B168" t="s">
         <v>267</v>
       </c>
-      <c r="B168" t="s">
-        <v>268</v>
-      </c>
       <c r="C168" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D168" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>97</v>
+      </c>
+      <c r="B169" t="s">
         <v>98</v>
       </c>
-      <c r="B169" t="s">
-        <v>99</v>
-      </c>
       <c r="C169" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D169" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>314</v>
+      </c>
+      <c r="B170" t="s">
         <v>315</v>
       </c>
-      <c r="B170" t="s">
-        <v>316</v>
-      </c>
       <c r="C170" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D170" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>284</v>
+      </c>
+      <c r="B171" t="s">
         <v>285</v>
       </c>
-      <c r="B171" t="s">
-        <v>286</v>
-      </c>
       <c r="C171" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D171" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>154</v>
+      </c>
+      <c r="B172" t="s">
         <v>155</v>
       </c>
-      <c r="B172" t="s">
-        <v>156</v>
-      </c>
       <c r="C172" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D172" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>220</v>
+      </c>
+      <c r="B173" t="s">
         <v>221</v>
-      </c>
-      <c r="B173" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" t="s">
         <v>11</v>
-      </c>
-      <c r="B174" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>110</v>
+      </c>
+      <c r="B175" t="s">
         <v>111</v>
-      </c>
-      <c r="B175" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>274</v>
+      </c>
+      <c r="B176" t="s">
         <v>275</v>
-      </c>
-      <c r="B176" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177" t="s">
         <v>171</v>
-      </c>
-      <c r="B177" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>95</v>
+      </c>
+      <c r="B178" t="s">
         <v>96</v>
-      </c>
-      <c r="B178" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
         <v>179</v>
       </c>
-      <c r="B179" t="s">
-        <v>180</v>
-      </c>
       <c r="D179" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>330</v>
+      </c>
+      <c r="B180" t="s">
         <v>331</v>
       </c>
-      <c r="B180" t="s">
-        <v>332</v>
-      </c>
       <c r="D180" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>242</v>
+      </c>
+      <c r="B181" t="s">
         <v>243</v>
       </c>
-      <c r="B181" t="s">
-        <v>244</v>
-      </c>
       <c r="D181" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>286</v>
+      </c>
+      <c r="B182" t="s">
         <v>287</v>
       </c>
-      <c r="B182" t="s">
-        <v>288</v>
-      </c>
       <c r="D182" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>350</v>
+      </c>
+      <c r="B183" t="s">
         <v>351</v>
       </c>
-      <c r="B183" t="s">
-        <v>352</v>
-      </c>
       <c r="D183" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>334</v>
+      </c>
+      <c r="B184" t="s">
         <v>335</v>
       </c>
-      <c r="B184" t="s">
-        <v>336</v>
-      </c>
       <c r="D184" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>312</v>
+      </c>
+      <c r="B185" t="s">
         <v>313</v>
       </c>
-      <c r="B185" t="s">
-        <v>314</v>
-      </c>
       <c r="C185" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D185" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E185" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>212</v>
+      </c>
+      <c r="B186" t="s">
         <v>213</v>
       </c>
-      <c r="B186" t="s">
-        <v>214</v>
-      </c>
       <c r="C186" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D186" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B187" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C187" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D187" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>202</v>
+      </c>
+      <c r="B188" t="s">
         <v>203</v>
       </c>
-      <c r="B188" t="s">
-        <v>204</v>
-      </c>
       <c r="C188" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D188" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>60</v>
+      </c>
+      <c r="B189" t="s">
         <v>61</v>
       </c>
-      <c r="B189" t="s">
-        <v>62</v>
-      </c>
       <c r="C189" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D189" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B190" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C190" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D190" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>280</v>
+      </c>
+      <c r="B191" t="s">
         <v>281</v>
       </c>
-      <c r="B191" t="s">
-        <v>282</v>
-      </c>
       <c r="D191" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E191" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>276</v>
+      </c>
+      <c r="B192" t="s">
         <v>277</v>
       </c>
-      <c r="B192" t="s">
-        <v>278</v>
-      </c>
       <c r="D192" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>238</v>
+      </c>
+      <c r="B193" t="s">
         <v>239</v>
       </c>
+      <c r="D193" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E193" xr:uid="{6DD5E853-0458-424C-91A8-350443C801C0}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B69974-753F-4B25-9ACF-42CD0DA051B3}">
+  <dimension ref="A1:D193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="34.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" t="s">
+        <v>418</v>
+      </c>
+      <c r="D15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" t="s">
+        <v>420</v>
+      </c>
+      <c r="D16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" t="s">
+        <v>422</v>
+      </c>
+      <c r="D17" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" t="s">
+        <v>424</v>
+      </c>
+      <c r="D18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>426</v>
+      </c>
+      <c r="D19" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>428</v>
+      </c>
+      <c r="D20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" t="s">
+        <v>430</v>
+      </c>
+      <c r="D21" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" t="s">
+        <v>328</v>
+      </c>
+      <c r="C22" t="s">
+        <v>432</v>
+      </c>
+      <c r="D22" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>434</v>
+      </c>
+      <c r="D23" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>436</v>
+      </c>
+      <c r="D24" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>438</v>
+      </c>
+      <c r="D25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>382</v>
+      </c>
+      <c r="C26" t="s">
+        <v>440</v>
+      </c>
+      <c r="D26" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>442</v>
+      </c>
+      <c r="D27" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>444</v>
+      </c>
+      <c r="D28" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>446</v>
+      </c>
+      <c r="D29" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" t="s">
+        <v>450</v>
+      </c>
+      <c r="D30" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>448</v>
+      </c>
+      <c r="D31" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" t="s">
+        <v>452</v>
+      </c>
+      <c r="D32" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>454</v>
+      </c>
+      <c r="D33" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D34" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35" t="s">
+        <v>458</v>
+      </c>
+      <c r="D35" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" t="s">
+        <v>460</v>
+      </c>
+      <c r="D36" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>462</v>
+      </c>
+      <c r="D37" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" t="s">
+        <v>464</v>
+      </c>
+      <c r="D38" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" t="s">
+        <v>466</v>
+      </c>
+      <c r="D39" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>468</v>
+      </c>
+      <c r="D40" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>296</v>
+      </c>
+      <c r="B41" t="s">
+        <v>295</v>
+      </c>
+      <c r="C41" t="s">
+        <v>470</v>
+      </c>
+      <c r="D41" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>378</v>
+      </c>
+      <c r="C42" t="s">
+        <v>472</v>
+      </c>
+      <c r="D42" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" t="s">
+        <v>474</v>
+      </c>
+      <c r="D43" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" t="s">
+        <v>476</v>
+      </c>
+      <c r="D44" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>478</v>
+      </c>
+      <c r="D45" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>361</v>
+      </c>
+      <c r="B46" t="s">
+        <v>360</v>
+      </c>
+      <c r="C46" t="s">
+        <v>480</v>
+      </c>
+      <c r="D46" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>265</v>
+      </c>
+      <c r="B47" t="s">
+        <v>264</v>
+      </c>
+      <c r="C47" t="s">
+        <v>482</v>
+      </c>
+      <c r="D47" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>484</v>
+      </c>
+      <c r="D48" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>486</v>
+      </c>
+      <c r="D49" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>488</v>
+      </c>
+      <c r="D50" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" t="s">
+        <v>490</v>
+      </c>
+      <c r="D51" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>492</v>
+      </c>
+      <c r="D52" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>317</v>
+      </c>
+      <c r="B53" t="s">
+        <v>316</v>
+      </c>
+      <c r="C53" t="s">
+        <v>494</v>
+      </c>
+      <c r="D53" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>373</v>
+      </c>
+      <c r="B54" t="s">
+        <v>372</v>
+      </c>
+      <c r="C54" t="s">
+        <v>496</v>
+      </c>
+      <c r="D54" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>347</v>
+      </c>
+      <c r="B55" t="s">
+        <v>346</v>
+      </c>
+      <c r="C55" t="s">
+        <v>500</v>
+      </c>
+      <c r="D55" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" t="s">
+        <v>498</v>
+      </c>
+      <c r="D56" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>235</v>
+      </c>
+      <c r="B57" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" t="s">
+        <v>502</v>
+      </c>
+      <c r="D57" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>245</v>
+      </c>
+      <c r="B58" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" t="s">
+        <v>504</v>
+      </c>
+      <c r="D58" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>339</v>
+      </c>
+      <c r="B59" t="s">
+        <v>338</v>
+      </c>
+      <c r="C59" t="s">
+        <v>506</v>
+      </c>
+      <c r="D59" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" t="s">
+        <v>508</v>
+      </c>
+      <c r="D60" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" t="s">
+        <v>514</v>
+      </c>
+      <c r="D61" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" t="s">
+        <v>510</v>
+      </c>
+      <c r="D62" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>319</v>
+      </c>
+      <c r="B63" t="s">
+        <v>318</v>
+      </c>
+      <c r="C63" t="s">
+        <v>512</v>
+      </c>
+      <c r="D63" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64" t="s">
+        <v>516</v>
+      </c>
+      <c r="D64" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" t="s">
+        <v>278</v>
+      </c>
+      <c r="C65" t="s">
+        <v>518</v>
+      </c>
+      <c r="D65" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>173</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" t="s">
+        <v>520</v>
+      </c>
+      <c r="D66" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>369</v>
+      </c>
+      <c r="B67" t="s">
+        <v>368</v>
+      </c>
+      <c r="C67" t="s">
+        <v>522</v>
+      </c>
+      <c r="D67" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" t="s">
+        <v>524</v>
+      </c>
+      <c r="D68" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>355</v>
+      </c>
+      <c r="B69" t="s">
+        <v>354</v>
+      </c>
+      <c r="C69" t="s">
+        <v>526</v>
+      </c>
+      <c r="D69" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>375</v>
+      </c>
+      <c r="B70" t="s">
+        <v>374</v>
+      </c>
+      <c r="C70" t="s">
+        <v>528</v>
+      </c>
+      <c r="D70" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
+        <v>530</v>
+      </c>
+      <c r="D71" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" t="s">
+        <v>532</v>
+      </c>
+      <c r="D72" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" t="s">
+        <v>534</v>
+      </c>
+      <c r="D73" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>273</v>
+      </c>
+      <c r="B74" t="s">
+        <v>272</v>
+      </c>
+      <c r="C74" t="s">
+        <v>536</v>
+      </c>
+      <c r="D74" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>261</v>
+      </c>
+      <c r="B75" t="s">
+        <v>260</v>
+      </c>
+      <c r="C75" t="s">
+        <v>538</v>
+      </c>
+      <c r="D75" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>343</v>
+      </c>
+      <c r="B76" t="s">
+        <v>342</v>
+      </c>
+      <c r="C76" t="s">
+        <v>540</v>
+      </c>
+      <c r="D76" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" t="s">
+        <v>542</v>
+      </c>
+      <c r="D77" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>544</v>
+      </c>
+      <c r="D78" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" t="s">
+        <v>546</v>
+      </c>
+      <c r="D79" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" t="s">
+        <v>548</v>
+      </c>
+      <c r="D80" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>263</v>
+      </c>
+      <c r="B81" t="s">
+        <v>262</v>
+      </c>
+      <c r="C81" t="s">
+        <v>550</v>
+      </c>
+      <c r="D81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" t="s">
+        <v>552</v>
+      </c>
+      <c r="D82" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
+        <v>554</v>
+      </c>
+      <c r="D83" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" t="s">
+        <v>556</v>
+      </c>
+      <c r="D84" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>341</v>
+      </c>
+      <c r="B85" t="s">
+        <v>340</v>
+      </c>
+      <c r="C85" t="s">
+        <v>558</v>
+      </c>
+      <c r="D85" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" t="s">
+        <v>377</v>
+      </c>
+      <c r="C86" t="s">
+        <v>560</v>
+      </c>
+      <c r="D86" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>321</v>
+      </c>
+      <c r="B87" t="s">
+        <v>320</v>
+      </c>
+      <c r="C87" t="s">
+        <v>562</v>
+      </c>
+      <c r="D87" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>345</v>
+      </c>
+      <c r="B88" t="s">
+        <v>344</v>
+      </c>
+      <c r="C88" t="s">
+        <v>564</v>
+      </c>
+      <c r="D88" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" t="s">
+        <v>566</v>
+      </c>
+      <c r="D89" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>568</v>
+      </c>
+      <c r="D90" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" t="s">
+        <v>570</v>
+      </c>
+      <c r="D91" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" t="s">
+        <v>574</v>
+      </c>
+      <c r="D92" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>304</v>
+      </c>
+      <c r="B93" t="s">
+        <v>303</v>
+      </c>
+      <c r="C93" t="s">
+        <v>572</v>
+      </c>
+      <c r="D93" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" t="s">
+        <v>576</v>
+      </c>
+      <c r="D94" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>325</v>
+      </c>
+      <c r="B95" t="s">
+        <v>324</v>
+      </c>
+      <c r="C95" t="s">
+        <v>578</v>
+      </c>
+      <c r="D95" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>333</v>
+      </c>
+      <c r="B96" t="s">
+        <v>332</v>
+      </c>
+      <c r="C96" t="s">
+        <v>580</v>
+      </c>
+      <c r="D96" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>306</v>
+      </c>
+      <c r="B97" t="s">
+        <v>305</v>
+      </c>
+      <c r="C97" t="s">
+        <v>582</v>
+      </c>
+      <c r="D97" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>584</v>
+      </c>
+      <c r="D98" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>327</v>
+      </c>
+      <c r="B99" t="s">
+        <v>326</v>
+      </c>
+      <c r="C99" t="s">
+        <v>586</v>
+      </c>
+      <c r="D99" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>588</v>
+      </c>
+      <c r="D100" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" t="s">
+        <v>590</v>
+      </c>
+      <c r="D101" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" t="s">
+        <v>592</v>
+      </c>
+      <c r="D102" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>253</v>
+      </c>
+      <c r="B103" t="s">
+        <v>252</v>
+      </c>
+      <c r="C103" t="s">
+        <v>594</v>
+      </c>
+      <c r="D103" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>259</v>
+      </c>
+      <c r="B104" t="s">
+        <v>258</v>
+      </c>
+      <c r="C104" t="s">
+        <v>596</v>
+      </c>
+      <c r="D104" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>191</v>
+      </c>
+      <c r="B105" t="s">
+        <v>190</v>
+      </c>
+      <c r="C105" t="s">
+        <v>598</v>
+      </c>
+      <c r="D105" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" t="s">
+        <v>600</v>
+      </c>
+      <c r="D106" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107" t="s">
+        <v>166</v>
+      </c>
+      <c r="C107" t="s">
+        <v>602</v>
+      </c>
+      <c r="D107" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>165</v>
+      </c>
+      <c r="B108" t="s">
+        <v>164</v>
+      </c>
+      <c r="C108" t="s">
+        <v>604</v>
+      </c>
+      <c r="D108" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" t="s">
+        <v>606</v>
+      </c>
+      <c r="D109" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>90</v>
+      </c>
+      <c r="B110" t="s">
+        <v>379</v>
+      </c>
+      <c r="C110" t="s">
+        <v>608</v>
+      </c>
+      <c r="D110" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>283</v>
+      </c>
+      <c r="B111" t="s">
+        <v>282</v>
+      </c>
+      <c r="C111" t="s">
+        <v>610</v>
+      </c>
+      <c r="D111" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>205</v>
+      </c>
+      <c r="B112" t="s">
+        <v>204</v>
+      </c>
+      <c r="C112" t="s">
+        <v>612</v>
+      </c>
+      <c r="D112" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>363</v>
+      </c>
+      <c r="B113" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>217</v>
+      </c>
+      <c r="B117" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>105</v>
+      </c>
+      <c r="B118" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>207</v>
+      </c>
+      <c r="B121" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>183</v>
+      </c>
+      <c r="B122" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>29</v>
+      </c>
+      <c r="B123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>35</v>
+      </c>
+      <c r="B124" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>269</v>
+      </c>
+      <c r="B125" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>359</v>
+      </c>
+      <c r="B126" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>353</v>
+      </c>
+      <c r="B127" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>113</v>
+      </c>
+      <c r="B130" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>80</v>
+      </c>
+      <c r="B131" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>199</v>
+      </c>
+      <c r="B132" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>365</v>
+      </c>
+      <c r="B133" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>311</v>
+      </c>
+      <c r="B134" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>63</v>
+      </c>
+      <c r="B135" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>47</v>
+      </c>
+      <c r="B136" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>337</v>
+      </c>
+      <c r="B137" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>290</v>
+      </c>
+      <c r="B138" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>251</v>
+      </c>
+      <c r="B140" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>309</v>
+      </c>
+      <c r="B141" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>78</v>
+      </c>
+      <c r="B142" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>175</v>
+      </c>
+      <c r="B143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>249</v>
+      </c>
+      <c r="B144" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>298</v>
+      </c>
+      <c r="B145" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>211</v>
+      </c>
+      <c r="B148" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>302</v>
+      </c>
+      <c r="B149" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>49</v>
+      </c>
+      <c r="B150" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>115</v>
+      </c>
+      <c r="B152" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>197</v>
+      </c>
+      <c r="B153" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>127</v>
+      </c>
+      <c r="B154" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>323</v>
+      </c>
+      <c r="B156" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>137</v>
+      </c>
+      <c r="B157" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>209</v>
+      </c>
+      <c r="B158" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>215</v>
+      </c>
+      <c r="B159" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>201</v>
+      </c>
+      <c r="B160" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>135</v>
+      </c>
+      <c r="B161" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>292</v>
+      </c>
+      <c r="B162" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>357</v>
+      </c>
+      <c r="B163" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>133</v>
+      </c>
+      <c r="B164" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>189</v>
+      </c>
+      <c r="B165" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>177</v>
+      </c>
+      <c r="B166" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>151</v>
+      </c>
+      <c r="B167" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>267</v>
+      </c>
+      <c r="B168" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>98</v>
+      </c>
+      <c r="B169" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>315</v>
+      </c>
+      <c r="B170" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>285</v>
+      </c>
+      <c r="B171" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>155</v>
+      </c>
+      <c r="B172" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>221</v>
+      </c>
+      <c r="B173" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>111</v>
+      </c>
+      <c r="B175" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>275</v>
+      </c>
+      <c r="B176" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>171</v>
+      </c>
+      <c r="B177" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>96</v>
+      </c>
+      <c r="B178" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>331</v>
+      </c>
+      <c r="B180" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>243</v>
+      </c>
+      <c r="B181" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>287</v>
+      </c>
+      <c r="B182" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>351</v>
+      </c>
+      <c r="B183" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>335</v>
+      </c>
+      <c r="B184" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>313</v>
+      </c>
+      <c r="B185" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>213</v>
+      </c>
+      <c r="B186" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>288</v>
+      </c>
+      <c r="B187" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>203</v>
+      </c>
+      <c r="B188" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>61</v>
+      </c>
+      <c r="B189" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>380</v>
+      </c>
+      <c r="B190" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>281</v>
+      </c>
+      <c r="B191" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>277</v>
+      </c>
+      <c r="B192" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>239</v>
+      </c>
       <c r="B193" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:D112" xr:uid="{25B69974-753F-4B25-9ACF-42CD0DA051B3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D112">
+      <sortCondition ref="C1:C112"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBDCD65-EA47-4525-8512-EB552DC98927}">
+  <dimension ref="A1:E193"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.875" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" t="s">
+        <v>367</v>
+      </c>
+      <c r="D21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>328</v>
+      </c>
+      <c r="B22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>240</v>
       </c>
+      <c r="B32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>295</v>
+      </c>
+      <c r="B41" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>378</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B46" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" t="s">
+        <v>383</v>
+      </c>
+      <c r="D48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>383</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>383</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>383</v>
+      </c>
+      <c r="D51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>383</v>
+      </c>
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>316</v>
+      </c>
+      <c r="B53" t="s">
+        <v>317</v>
+      </c>
+      <c r="C53" t="s">
+        <v>383</v>
+      </c>
+      <c r="D53" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>372</v>
+      </c>
+      <c r="B54" t="s">
+        <v>373</v>
+      </c>
+      <c r="C54" t="s">
+        <v>383</v>
+      </c>
+      <c r="D54" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>346</v>
+      </c>
+      <c r="B55" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>338</v>
+      </c>
+      <c r="B59" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>236</v>
+      </c>
+      <c r="B64" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" t="s">
+        <v>383</v>
+      </c>
+      <c r="D64" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>278</v>
+      </c>
+      <c r="B65" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65" t="s">
+        <v>383</v>
+      </c>
+      <c r="D65" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" t="s">
+        <v>383</v>
+      </c>
+      <c r="D66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>368</v>
+      </c>
+      <c r="B67" t="s">
+        <v>369</v>
+      </c>
+      <c r="C67" t="s">
+        <v>383</v>
+      </c>
+      <c r="D67" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" t="s">
+        <v>383</v>
+      </c>
+      <c r="D68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>354</v>
+      </c>
+      <c r="B69" t="s">
+        <v>355</v>
+      </c>
+      <c r="C69" t="s">
+        <v>383</v>
+      </c>
+      <c r="D69" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>374</v>
+      </c>
+      <c r="B70" t="s">
+        <v>375</v>
+      </c>
+      <c r="C70" t="s">
+        <v>383</v>
+      </c>
+      <c r="D70" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>272</v>
+      </c>
+      <c r="B74" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>260</v>
+      </c>
+      <c r="B75" t="s">
+        <v>261</v>
+      </c>
+      <c r="D75" t="s">
+        <v>260</v>
+      </c>
+      <c r="E75" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>342</v>
+      </c>
+      <c r="B76" t="s">
+        <v>343</v>
+      </c>
+      <c r="D76" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" t="s">
+        <v>141</v>
+      </c>
+      <c r="D79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>262</v>
+      </c>
+      <c r="B81" t="s">
+        <v>263</v>
+      </c>
+      <c r="D81" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>340</v>
+      </c>
+      <c r="B85" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>377</v>
+      </c>
+      <c r="B86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" t="s">
+        <v>377</v>
+      </c>
+      <c r="E86" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>320</v>
+      </c>
+      <c r="B87" t="s">
+        <v>321</v>
+      </c>
+      <c r="D87" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>344</v>
+      </c>
+      <c r="B88" t="s">
+        <v>345</v>
+      </c>
+      <c r="D88" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" t="s">
+        <v>149</v>
+      </c>
+      <c r="D89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>303</v>
+      </c>
+      <c r="B93" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>324</v>
+      </c>
+      <c r="B95" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>332</v>
+      </c>
+      <c r="B96" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>305</v>
+      </c>
+      <c r="B97" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>326</v>
+      </c>
+      <c r="B99" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>138</v>
+      </c>
+      <c r="B101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>144</v>
+      </c>
+      <c r="B102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>252</v>
+      </c>
+      <c r="B103" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>258</v>
+      </c>
+      <c r="B104" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>190</v>
+      </c>
+      <c r="B105" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" t="s">
+        <v>167</v>
+      </c>
+      <c r="C107" t="s">
+        <v>383</v>
+      </c>
+      <c r="D107" t="s">
+        <v>166</v>
+      </c>
+      <c r="E107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>164</v>
+      </c>
+      <c r="B108" t="s">
+        <v>165</v>
+      </c>
+      <c r="C108" t="s">
+        <v>383</v>
+      </c>
+      <c r="D108" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" t="s">
+        <v>383</v>
+      </c>
+      <c r="D109" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>379</v>
+      </c>
+      <c r="B110" t="s">
+        <v>90</v>
+      </c>
+      <c r="C110" t="s">
+        <v>383</v>
+      </c>
+      <c r="D110" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>282</v>
+      </c>
+      <c r="B111" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>204</v>
+      </c>
+      <c r="B112" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>362</v>
+      </c>
+      <c r="B113" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>224</v>
+      </c>
+      <c r="B116" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>216</v>
+      </c>
+      <c r="B117" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>104</v>
+      </c>
+      <c r="B118" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>228</v>
+      </c>
+      <c r="B120" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>206</v>
+      </c>
+      <c r="B121" t="s">
+        <v>207</v>
+      </c>
+      <c r="C121" t="s">
+        <v>383</v>
+      </c>
+      <c r="D121" t="s">
+        <v>206</v>
+      </c>
+      <c r="E121" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>182</v>
+      </c>
+      <c r="B122" t="s">
+        <v>183</v>
+      </c>
+      <c r="C122" t="s">
+        <v>383</v>
+      </c>
+      <c r="D122" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" t="s">
+        <v>383</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" t="s">
+        <v>383</v>
+      </c>
+      <c r="D124" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>268</v>
+      </c>
+      <c r="B125" t="s">
+        <v>269</v>
+      </c>
+      <c r="C125" t="s">
+        <v>383</v>
+      </c>
+      <c r="D125" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>358</v>
+      </c>
+      <c r="B126" t="s">
+        <v>359</v>
+      </c>
+      <c r="C126" t="s">
+        <v>383</v>
+      </c>
+      <c r="D126" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>352</v>
+      </c>
+      <c r="B127" t="s">
+        <v>353</v>
+      </c>
+      <c r="C127" t="s">
+        <v>383</v>
+      </c>
+      <c r="D127" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>218</v>
+      </c>
+      <c r="B128" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>112</v>
+      </c>
+      <c r="B130" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>79</v>
+      </c>
+      <c r="B131" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>198</v>
+      </c>
+      <c r="B132" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>364</v>
+      </c>
+      <c r="B133" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>310</v>
+      </c>
+      <c r="B134" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>62</v>
+      </c>
+      <c r="B135" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>46</v>
+      </c>
+      <c r="B136" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>336</v>
+      </c>
+      <c r="B137" t="s">
+        <v>337</v>
+      </c>
+      <c r="C137" t="s">
+        <v>383</v>
+      </c>
+      <c r="D137" t="s">
+        <v>336</v>
+      </c>
+      <c r="E137" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>289</v>
+      </c>
+      <c r="B138" t="s">
+        <v>290</v>
+      </c>
+      <c r="C138" t="s">
+        <v>383</v>
+      </c>
+      <c r="D138" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" t="s">
+        <v>383</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" t="s">
+        <v>251</v>
+      </c>
+      <c r="C140" t="s">
+        <v>383</v>
+      </c>
+      <c r="D140" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>308</v>
+      </c>
+      <c r="B141" t="s">
+        <v>309</v>
+      </c>
+      <c r="C141" t="s">
+        <v>383</v>
+      </c>
+      <c r="D141" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>77</v>
+      </c>
+      <c r="B142" t="s">
+        <v>78</v>
+      </c>
+      <c r="C142" t="s">
+        <v>383</v>
+      </c>
+      <c r="D142" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>174</v>
+      </c>
+      <c r="B143" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" t="s">
+        <v>383</v>
+      </c>
+      <c r="D143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>248</v>
+      </c>
+      <c r="B144" t="s">
+        <v>249</v>
+      </c>
+      <c r="D144" t="s">
+        <v>248</v>
+      </c>
+      <c r="E144" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>297</v>
+      </c>
+      <c r="B145" t="s">
+        <v>298</v>
+      </c>
+      <c r="D145" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146" t="s">
+        <v>157</v>
+      </c>
+      <c r="D146" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>210</v>
+      </c>
+      <c r="B148" t="s">
+        <v>211</v>
+      </c>
+      <c r="D148" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>301</v>
+      </c>
+      <c r="B149" t="s">
+        <v>302</v>
+      </c>
+      <c r="D149" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>299</v>
+      </c>
+      <c r="B151" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>114</v>
+      </c>
+      <c r="B152" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>196</v>
+      </c>
+      <c r="B153" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>126</v>
+      </c>
+      <c r="B154" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>322</v>
+      </c>
+      <c r="B156" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>136</v>
+      </c>
+      <c r="B157" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>208</v>
+      </c>
+      <c r="B158" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>214</v>
+      </c>
+      <c r="B159" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>134</v>
+      </c>
+      <c r="B161" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>291</v>
+      </c>
+      <c r="B162" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>356</v>
+      </c>
+      <c r="B163" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>132</v>
+      </c>
+      <c r="B164" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>188</v>
+      </c>
+      <c r="B165" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>176</v>
+      </c>
+      <c r="B166" t="s">
+        <v>177</v>
+      </c>
+      <c r="C166" t="s">
+        <v>383</v>
+      </c>
+      <c r="D166" t="s">
+        <v>176</v>
+      </c>
+      <c r="E166" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>150</v>
+      </c>
+      <c r="B167" t="s">
+        <v>151</v>
+      </c>
+      <c r="C167" t="s">
+        <v>383</v>
+      </c>
+      <c r="D167" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>266</v>
+      </c>
+      <c r="B168" t="s">
+        <v>267</v>
+      </c>
+      <c r="C168" t="s">
+        <v>383</v>
+      </c>
+      <c r="D168" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>97</v>
+      </c>
+      <c r="B169" t="s">
+        <v>98</v>
+      </c>
+      <c r="C169" t="s">
+        <v>383</v>
+      </c>
+      <c r="D169" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>314</v>
+      </c>
+      <c r="B170" t="s">
+        <v>315</v>
+      </c>
+      <c r="C170" t="s">
+        <v>383</v>
+      </c>
+      <c r="D170" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>284</v>
+      </c>
+      <c r="B171" t="s">
+        <v>285</v>
+      </c>
+      <c r="C171" t="s">
+        <v>383</v>
+      </c>
+      <c r="D171" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>154</v>
+      </c>
+      <c r="B172" t="s">
+        <v>155</v>
+      </c>
+      <c r="C172" t="s">
+        <v>383</v>
+      </c>
+      <c r="D172" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>220</v>
+      </c>
+      <c r="B173" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>110</v>
+      </c>
+      <c r="B175" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>274</v>
+      </c>
+      <c r="B176" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>95</v>
+      </c>
+      <c r="B178" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+      <c r="D179" t="s">
+        <v>178</v>
+      </c>
+      <c r="E179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>330</v>
+      </c>
+      <c r="B180" t="s">
+        <v>331</v>
+      </c>
+      <c r="D180" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>242</v>
+      </c>
+      <c r="B181" t="s">
+        <v>243</v>
+      </c>
+      <c r="D181" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>286</v>
+      </c>
+      <c r="B182" t="s">
+        <v>287</v>
+      </c>
+      <c r="D182" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>350</v>
+      </c>
+      <c r="B183" t="s">
+        <v>351</v>
+      </c>
+      <c r="D183" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>334</v>
+      </c>
+      <c r="B184" t="s">
+        <v>335</v>
+      </c>
+      <c r="D184" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>312</v>
+      </c>
+      <c r="B185" t="s">
+        <v>313</v>
+      </c>
+      <c r="C185" t="s">
+        <v>383</v>
+      </c>
+      <c r="D185" t="s">
+        <v>312</v>
+      </c>
+      <c r="E185" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>212</v>
+      </c>
+      <c r="B186" t="s">
+        <v>213</v>
+      </c>
+      <c r="C186" t="s">
+        <v>383</v>
+      </c>
+      <c r="D186" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>381</v>
+      </c>
+      <c r="B187" t="s">
+        <v>288</v>
+      </c>
+      <c r="C187" t="s">
+        <v>383</v>
+      </c>
+      <c r="D187" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>202</v>
+      </c>
+      <c r="B188" t="s">
+        <v>203</v>
+      </c>
+      <c r="C188" t="s">
+        <v>383</v>
+      </c>
+      <c r="D188" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>60</v>
+      </c>
+      <c r="B189" t="s">
+        <v>61</v>
+      </c>
+      <c r="C189" t="s">
+        <v>383</v>
+      </c>
+      <c r="D189" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>307</v>
+      </c>
+      <c r="B190" t="s">
+        <v>380</v>
+      </c>
+      <c r="C190" t="s">
+        <v>383</v>
+      </c>
+      <c r="D190" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>280</v>
+      </c>
+      <c r="B191" t="s">
+        <v>281</v>
+      </c>
+      <c r="D191" t="s">
+        <v>280</v>
+      </c>
+      <c r="E191" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>276</v>
+      </c>
+      <c r="B192" t="s">
+        <v>277</v>
+      </c>
+      <c r="D192" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>238</v>
+      </c>
+      <c r="B193" t="s">
+        <v>239</v>
+      </c>
       <c r="D193" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
